--- a/Importación_GUIA/7. Importación_Transporte.xlsx
+++ b/Importación_GUIA/7. Importación_Transporte.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\inventarioV2\Importacion_Inventario_GUIA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="858"/>
+    <workbookView windowWidth="28800" windowHeight="12495" tabRatio="858"/>
   </bookViews>
   <sheets>
     <sheet name="Importación_Transporte" sheetId="5" r:id="rId1"/>
@@ -18,111 +13,242 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Importación_Transporte!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Importación_Transporte!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>000005</t>
+  </si>
+  <si>
+    <t>Camionetas de carga pick-up</t>
+  </si>
+  <si>
+    <t>A13BC4G</t>
+  </si>
+  <si>
+    <t>Dong Feng ZNA</t>
+  </si>
+  <si>
+    <t>PICKUP</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
   <si>
     <t>Blanco</t>
   </si>
   <si>
-    <t>A13BC4G</t>
-  </si>
-  <si>
     <t>En uso</t>
   </si>
   <si>
+    <t>DGA</t>
+  </si>
+  <si>
+    <t>Irlanda Molina</t>
+  </si>
+  <si>
+    <t>18343688</t>
+  </si>
+  <si>
+    <t>Borburata</t>
+  </si>
+  <si>
     <t>CIDE</t>
   </si>
   <si>
-    <t>Borburata</t>
+    <t>MINCYT</t>
   </si>
   <si>
     <t>chequeado</t>
   </si>
   <si>
-    <t>000001</t>
-  </si>
-  <si>
-    <t>Camionetas de carga pick-up</t>
-  </si>
-  <si>
-    <t>Dong Feng ZNA</t>
-  </si>
-  <si>
-    <t>PICKUP</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>MINCYT</t>
-  </si>
-  <si>
     <t>Transporte</t>
-  </si>
-  <si>
-    <t>DGA</t>
-  </si>
-  <si>
-    <t>Irlanda Molina</t>
-  </si>
-  <si>
-    <t>18343688</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,16 +257,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -163,83 +465,358 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+  <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="2"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="Normal 2_INVENTARIO SOLICITADO" xfId="48"/>
+    <cellStyle name="60% - Accent6" xfId="49" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF99FF99"/>
-      <color rgb="FFFF99CC"/>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FF1F497D"/>
-      <color rgb="FFCCFFFF"/>
-      <color rgb="FFFFFFCC"/>
-      <color rgb="FFFFCCFF"/>
-      <color rgb="FF99FFCC"/>
-      <color rgb="FFCC99FF"/>
-      <color rgb="FFFF7D7D"/>
+      <color rgb="0099FF99"/>
+      <color rgb="00FF99CC"/>
+      <color rgb="0066FFFF"/>
+      <color rgb="001F497D"/>
+      <color rgb="00CCFFFF"/>
+      <color rgb="00FFFFCC"/>
+      <color rgb="00FFCCFF"/>
+      <color rgb="0099FFCC"/>
+      <color rgb="00CC99FF"/>
+      <color rgb="00FF7D7D"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -288,7 +865,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -323,7 +900,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,121 +1074,116 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.7142857142857" defaultRowHeight="20.1" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10" style="10" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="25.7109375" style="10"/>
+    <col min="1" max="1" width="8.42857142857143" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7142857142857" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.2857142857143" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.57142857142857" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28571428571429" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85714285714286" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.4285714285714" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.2857142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.4285714285714" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85714285714286" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.8571428571429" style="4" customWidth="1"/>
+    <col min="16" max="16" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="17" max="17" width="20.5714285714286" style="5" customWidth="1"/>
+    <col min="18" max="18" width="26.1428571428571" style="5" customWidth="1"/>
+    <col min="19" max="19" width="10" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="25.7142857142857" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" customHeight="1" spans="1:21">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="I1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="K1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="P1" s="10">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="10">
+        <v>5</v>
+      </c>
+      <c r="R1" s="11">
+        <v>44585</v>
+      </c>
+      <c r="S1" s="11">
+        <v>44585</v>
+      </c>
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="U1" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3">
-        <v>5</v>
-      </c>
-      <c r="P1" s="3">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>44585</v>
-      </c>
-      <c r="R1" s="4">
-        <v>44585</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.236220472440945" right="0.236220472440945" top="0.748031496062992" bottom="0.748031496062992" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="1" orientation="landscape"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;G</oddHeader>
     <oddFooter>&amp;LUDIT: Unidad de Desarrollo e Innovación Tecnológica&amp;CPage &amp;P of &amp;N&amp;RInventario de TEXTOS ABAE_ABAE_BORBURATA
 Elaborado por: Karla Mieres /William Figueredo</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="A1 L1" numberStoredAsText="1"/>
-  </ignoredErrors>
-  <legacyDrawingHF r:id="rId2"/>
+  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
--- a/Importación_GUIA/7. Importación_Transporte.xlsx
+++ b/Importación_GUIA/7. Importación_Transporte.xlsx
@@ -52,12 +52,6 @@
     <t>chequeado</t>
   </si>
   <si>
-    <t>Transporte</t>
-  </si>
-  <si>
-    <t>Averiado</t>
-  </si>
-  <si>
     <t>Residencia</t>
   </si>
   <si>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>A00AA0A</t>
+  </si>
+  <si>
+    <t>Optimo</t>
+  </si>
+  <si>
+    <t>transporte</t>
   </si>
 </sst>
 </file>
@@ -551,7 +551,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -584,31 +584,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>4</v>
@@ -638,7 +638,7 @@
         <v>8</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">

--- a/Importación_GUIA/7. Importación_Transporte.xlsx
+++ b/Importación_GUIA/7. Importación_Transporte.xlsx
@@ -551,17 +551,17 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" style="4" customWidth="1"/>
